--- a/output/1Y_P46_KFSDIV.xlsx
+++ b/output/1Y_P46_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>15.486</v>
       </c>
       <c r="C2" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D2" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>645.7445</v>
+        <v>644.4545000000001</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>16.1958</v>
       </c>
       <c r="C3" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D3" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E3" s="1">
-        <v>645.7445</v>
+        <v>644.4545000000001</v>
       </c>
       <c r="F3" s="1">
-        <v>617.444</v>
+        <v>616.2113000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>10458.2849</v>
+        <v>10416.5754</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10458.2849</v>
+        <v>10416.5754</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0458</v>
+        <v>0.0417</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,46 +821,46 @@
         <v>16.4264</v>
       </c>
       <c r="C4" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D4" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E4" s="1">
-        <v>1263.1886</v>
+        <v>1260.6658</v>
       </c>
       <c r="F4" s="1">
-        <v>608.7761</v>
+        <v>607.5593</v>
       </c>
       <c r="H4" s="1">
-        <v>20749.6408</v>
+        <v>20666.8501</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20749.6408</v>
+        <v>20666.8501</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>15.8329</v>
+        <v>15.8646</v>
       </c>
       <c r="M4" s="1">
         <v>0.75</v>
       </c>
       <c r="N4" s="1">
-        <v>435.8776</v>
+        <v>435.0068</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9564.1224</v>
+        <v>-9564.993200000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0142</v>
+        <v>0.0123</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>17.107</v>
       </c>
       <c r="C5" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D5" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E5" s="1">
-        <v>1871.9647</v>
+        <v>1868.225</v>
       </c>
       <c r="F5" s="1">
-        <v>587.3871</v>
+        <v>586.2061</v>
       </c>
       <c r="H5" s="1">
-        <v>32023.6999</v>
+        <v>31895.8319</v>
       </c>
       <c r="I5" s="1">
-        <v>435.8776</v>
+        <v>435.0068</v>
       </c>
       <c r="J5" s="1">
-        <v>32459.5775</v>
+        <v>32330.8387</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>16.0259</v>
+        <v>16.058</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10048.4308</v>
+        <v>-10048.3341</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0556</v>
+        <v>0.0543</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,46 +921,46 @@
         <v>16.8894</v>
       </c>
       <c r="C6" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D6" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E6" s="1">
-        <v>2459.3518</v>
+        <v>2454.4311</v>
       </c>
       <c r="F6" s="1">
-        <v>594.9549</v>
+        <v>593.7609</v>
       </c>
       <c r="H6" s="1">
-        <v>41536.7299</v>
+        <v>41370.9085</v>
       </c>
       <c r="I6" s="1">
-        <v>387.4467</v>
+        <v>386.6727</v>
       </c>
       <c r="J6" s="1">
-        <v>41924.1766</v>
+        <v>41757.5811</v>
       </c>
       <c r="K6" s="1">
-        <v>40048.4308</v>
+        <v>40048.3341</v>
       </c>
       <c r="L6" s="1">
-        <v>16.2841</v>
+        <v>16.3167</v>
       </c>
       <c r="M6" s="1">
         <v>1</v>
       </c>
       <c r="N6" s="1">
-        <v>1684.7682</v>
+        <v>1681.4025</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8363.6626</v>
+        <v>-8366.9316</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0126</v>
+        <v>-0.0135</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>16.4004</v>
       </c>
       <c r="C7" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D7" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E7" s="1">
-        <v>3054.3066</v>
+        <v>3048.192</v>
       </c>
       <c r="F7" s="1">
-        <v>627.3696</v>
+        <v>626.0784</v>
       </c>
       <c r="H7" s="1">
-        <v>50091.8507</v>
+        <v>49891.5866</v>
       </c>
       <c r="I7" s="1">
-        <v>2023.7841</v>
+        <v>2019.7411</v>
       </c>
       <c r="J7" s="1">
-        <v>52115.6348</v>
+        <v>51911.3277</v>
       </c>
       <c r="K7" s="1">
-        <v>50096.8617</v>
+        <v>50096.6682</v>
       </c>
       <c r="L7" s="1">
-        <v>16.402</v>
+        <v>16.4349</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10289.112</v>
+        <v>-10288.5344</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0037</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>15.3877</v>
       </c>
       <c r="C8" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D8" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E8" s="1">
-        <v>3681.6762</v>
+        <v>3674.2704</v>
       </c>
       <c r="F8" s="1">
-        <v>668.6582</v>
+        <v>667.285</v>
       </c>
       <c r="H8" s="1">
-        <v>56652.5292</v>
+        <v>56425.4027</v>
       </c>
       <c r="I8" s="1">
-        <v>1734.6721</v>
+        <v>1731.2067</v>
       </c>
       <c r="J8" s="1">
-        <v>58387.2013</v>
+        <v>58156.6093</v>
       </c>
       <c r="K8" s="1">
-        <v>60385.9737</v>
+        <v>60385.2026</v>
       </c>
       <c r="L8" s="1">
-        <v>16.4018</v>
+        <v>16.4346</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10289.112</v>
+        <v>-10288.5344</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.06</v>
+        <v>-0.0606</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>14.6367</v>
       </c>
       <c r="C9" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D9" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E9" s="1">
-        <v>4350.3344</v>
+        <v>4341.5554</v>
       </c>
       <c r="F9" s="1">
-        <v>702.9666999999999</v>
+        <v>701.5229</v>
       </c>
       <c r="H9" s="1">
-        <v>63674.5401</v>
+        <v>63418.8366</v>
       </c>
       <c r="I9" s="1">
-        <v>1445.5601</v>
+        <v>1442.6722</v>
       </c>
       <c r="J9" s="1">
-        <v>65120.1001</v>
+        <v>64861.5088</v>
       </c>
       <c r="K9" s="1">
-        <v>70675.0857</v>
+        <v>70673.7371</v>
       </c>
       <c r="L9" s="1">
-        <v>16.2459</v>
+        <v>16.2784</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10289.112</v>
+        <v>-10288.5344</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0478</v>
+        <v>-0.0483</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,46 +1121,46 @@
         <v>13.0061</v>
       </c>
       <c r="C10" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D10" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E10" s="1">
-        <v>5053.3011</v>
+        <v>5043.0783</v>
       </c>
       <c r="F10" s="1">
-        <v>791.0989</v>
+        <v>789.4703</v>
       </c>
       <c r="H10" s="1">
-        <v>65723.7393</v>
+        <v>65459.6605</v>
       </c>
       <c r="I10" s="1">
-        <v>1156.4481</v>
+        <v>1154.1378</v>
       </c>
       <c r="J10" s="1">
-        <v>66880.1874</v>
+        <v>66613.7982</v>
       </c>
       <c r="K10" s="1">
-        <v>80964.1977</v>
+        <v>80962.2715</v>
       </c>
       <c r="L10" s="1">
-        <v>16.022</v>
+        <v>16.0541</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>1957.6505</v>
+        <v>1953.6999</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8331.461499999999</v>
+        <v>-8334.834500000001</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.1097</v>
+        <v>-0.1102</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>13.835</v>
       </c>
       <c r="C11" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D11" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E11" s="1">
-        <v>5844.4</v>
+        <v>5832.5486</v>
       </c>
       <c r="F11" s="1">
-        <v>790.8682</v>
+        <v>789.1513</v>
       </c>
       <c r="H11" s="1">
-        <v>80857.2745</v>
+        <v>80531.74770000001</v>
       </c>
       <c r="I11" s="1">
-        <v>2824.9865</v>
+        <v>2819.3033</v>
       </c>
       <c r="J11" s="1">
-        <v>83682.2611</v>
+        <v>83351.0509</v>
       </c>
       <c r="K11" s="1">
-        <v>91253.3097</v>
+        <v>91250.80590000001</v>
       </c>
       <c r="L11" s="1">
-        <v>15.6138</v>
+        <v>15.6451</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10941.6622</v>
+        <v>-10939.7678</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0885</v>
+        <v>0.08790000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>14.4216</v>
       </c>
       <c r="C12" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D12" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E12" s="1">
-        <v>6635.2683</v>
+        <v>6621.6999</v>
       </c>
       <c r="F12" s="1">
-        <v>758.6996</v>
+        <v>757.0512</v>
       </c>
       <c r="H12" s="1">
-        <v>95691.1851</v>
+        <v>95304.8017</v>
       </c>
       <c r="I12" s="1">
-        <v>1883.3244</v>
+        <v>1879.5355</v>
       </c>
       <c r="J12" s="1">
-        <v>97574.5095</v>
+        <v>97184.33719999999</v>
       </c>
       <c r="K12" s="1">
-        <v>102194.9719</v>
+        <v>102190.5737</v>
       </c>
       <c r="L12" s="1">
-        <v>15.4018</v>
+        <v>15.4327</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10941.6622</v>
+        <v>-10939.7678</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0415</v>
+        <v>0.0411</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,46 +1271,46 @@
         <v>13.2404</v>
       </c>
       <c r="C13" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D13" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E13" s="1">
-        <v>7393.9679</v>
+        <v>7378.751</v>
       </c>
       <c r="F13" s="1">
-        <v>826.3846</v>
+        <v>824.5911</v>
       </c>
       <c r="H13" s="1">
-        <v>97899.09239999999</v>
+        <v>97502.07799999999</v>
       </c>
       <c r="I13" s="1">
-        <v>941.6622</v>
+        <v>939.7678</v>
       </c>
       <c r="J13" s="1">
-        <v>98840.7546</v>
+        <v>98441.8458</v>
       </c>
       <c r="K13" s="1">
-        <v>113136.6341</v>
+        <v>113130.3415</v>
       </c>
       <c r="L13" s="1">
-        <v>15.3012</v>
+        <v>15.3319</v>
       </c>
       <c r="M13" s="1">
         <v>0.4</v>
       </c>
       <c r="N13" s="1">
-        <v>2388.6966</v>
+        <v>2383.8119</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-8552.9656</v>
+        <v>-8555.9558</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.08119999999999999</v>
+        <v>-0.08160000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>12.382</v>
       </c>
       <c r="C14" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D14" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E14" s="1">
-        <v>8220.352500000001</v>
+        <v>8203.3421</v>
       </c>
       <c r="F14" s="1">
-        <v>-8220.352500000001</v>
+        <v>-8203.3421</v>
       </c>
       <c r="H14" s="1">
-        <v>101784.404</v>
+        <v>101370.3393</v>
       </c>
       <c r="I14" s="1">
-        <v>2388.6966</v>
+        <v>2383.8119</v>
       </c>
       <c r="J14" s="1">
-        <v>104173.1006</v>
+        <v>103754.1512</v>
       </c>
       <c r="K14" s="1">
-        <v>124078.2963</v>
+        <v>124070.1092</v>
       </c>
       <c r="L14" s="1">
-        <v>15.094</v>
+        <v>15.1243</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>101784.404</v>
+        <v>101370.3393</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0429</v>
+        <v>-0.0432</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>15.486</v>
       </c>
       <c r="C2" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D2" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>645.7445</v>
+        <v>644.4545000000001</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>16.1958</v>
       </c>
       <c r="C3" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D3" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E3" s="1">
-        <v>645.7445</v>
+        <v>644.4545000000001</v>
       </c>
       <c r="F3" s="1">
-        <v>589.1511</v>
+        <v>592.909</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10458.2849</v>
+        <v>10416.5754</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10458.2849</v>
+        <v>10416.5754</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9541.773999999999</v>
+        <v>-9621.8451</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0458</v>
+        <v>0.0417</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,49 +1556,49 @@
         <v>16.4264</v>
       </c>
       <c r="C4" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D4" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E4" s="1">
-        <v>1234.8957</v>
+        <v>1237.3634</v>
       </c>
       <c r="F4" s="1">
-        <v>591.4327</v>
+        <v>592.619</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>20284.8904</v>
+        <v>20284.8411</v>
       </c>
       <c r="I4" s="1">
-        <v>458.226</v>
+        <v>378.1549</v>
       </c>
       <c r="J4" s="1">
-        <v>20743.1164</v>
+        <v>20662.9959</v>
       </c>
       <c r="K4" s="1">
-        <v>19541.774</v>
+        <v>19621.8451</v>
       </c>
       <c r="L4" s="1">
-        <v>15.8246</v>
+        <v>15.8578</v>
       </c>
       <c r="M4" s="1">
         <v>0.75</v>
       </c>
       <c r="N4" s="1">
-        <v>435.8776</v>
+        <v>435.0068</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9279.232</v>
+        <v>-9319.0872</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0139</v>
+        <v>0.0121</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>17.107</v>
       </c>
       <c r="C5" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D5" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E5" s="1">
-        <v>1826.3283</v>
+        <v>1829.9824</v>
       </c>
       <c r="F5" s="1">
-        <v>511.8958</v>
+        <v>512.9256</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>31242.9991</v>
+        <v>31242.9241</v>
       </c>
       <c r="I5" s="1">
-        <v>1178.994</v>
+        <v>1059.0676</v>
       </c>
       <c r="J5" s="1">
-        <v>32421.9931</v>
+        <v>32301.9917</v>
       </c>
       <c r="K5" s="1">
-        <v>29256.8836</v>
+        <v>29375.9391</v>
       </c>
       <c r="L5" s="1">
-        <v>16.0195</v>
+        <v>16.0526</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8757.000899999999</v>
+        <v>-8792.211300000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0546</v>
+        <v>0.0535</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,49 +1662,49 @@
         <v>16.8894</v>
       </c>
       <c r="C6" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D6" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E6" s="1">
-        <v>2338.2241</v>
+        <v>2342.908</v>
       </c>
       <c r="F6" s="1">
-        <v>622.2301</v>
+        <v>623.4652</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>39490.9686</v>
+        <v>39491.1204</v>
       </c>
       <c r="I6" s="1">
-        <v>2421.9931</v>
+        <v>2266.8563</v>
       </c>
       <c r="J6" s="1">
-        <v>41912.9617</v>
+        <v>41757.9767</v>
       </c>
       <c r="K6" s="1">
-        <v>38013.8845</v>
+        <v>38168.1505</v>
       </c>
       <c r="L6" s="1">
-        <v>16.2576</v>
+        <v>16.2909</v>
       </c>
       <c r="M6" s="1">
         <v>1</v>
       </c>
       <c r="N6" s="1">
-        <v>1643.6955</v>
+        <v>1646.9842</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8865.3981</v>
+        <v>-8904.0417</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.012</v>
+        <v>-0.0129</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>16.4004</v>
       </c>
       <c r="C7" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D7" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E7" s="1">
-        <v>2960.4543</v>
+        <v>2966.3732</v>
       </c>
       <c r="F7" s="1">
-        <v>697.9931</v>
+        <v>699.4055</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>48552.6339</v>
+        <v>48552.4099</v>
       </c>
       <c r="I7" s="1">
-        <v>3556.595</v>
+        <v>3362.8146</v>
       </c>
       <c r="J7" s="1">
-        <v>52109.2289</v>
+        <v>51915.2245</v>
       </c>
       <c r="K7" s="1">
-        <v>48522.9781</v>
+        <v>48719.1763</v>
       </c>
       <c r="L7" s="1">
-        <v>16.3904</v>
+        <v>16.4238</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-11447.3661</v>
+        <v>-11493.5411</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0038</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>15.3877</v>
       </c>
       <c r="C8" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D8" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E8" s="1">
-        <v>3658.4474</v>
+        <v>3665.7787</v>
       </c>
       <c r="F8" s="1">
-        <v>786.9421</v>
+        <v>769.8073000000001</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>56295.0904</v>
+        <v>56294.9974</v>
       </c>
       <c r="I8" s="1">
-        <v>2109.2289</v>
+        <v>1869.2736</v>
       </c>
       <c r="J8" s="1">
-        <v>58404.3192</v>
+        <v>58164.271</v>
       </c>
       <c r="K8" s="1">
-        <v>59970.3442</v>
+        <v>60212.7174</v>
       </c>
       <c r="L8" s="1">
-        <v>16.3923</v>
+        <v>16.4256</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-12109.2289</v>
+        <v>-11869.2736</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0597</v>
+        <v>-0.0606</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>14.6367</v>
       </c>
       <c r="C9" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D9" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E9" s="1">
-        <v>4445.3895</v>
+        <v>4435.586</v>
       </c>
       <c r="F9" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>65065.8318</v>
+        <v>64792.3791</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>65065.8318</v>
+        <v>64792.3791</v>
       </c>
       <c r="K9" s="1">
-        <v>72079.57309999999</v>
+        <v>72081.99099999999</v>
       </c>
       <c r="L9" s="1">
-        <v>16.2145</v>
+        <v>16.2508</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0488</v>
+        <v>-0.0495</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,49 +1874,49 @@
         <v>13.0061</v>
       </c>
       <c r="C10" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D10" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E10" s="1">
-        <v>5128.6036</v>
+        <v>5117.4352</v>
       </c>
       <c r="F10" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>66703.1308</v>
+        <v>66424.8205</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>66703.1308</v>
+        <v>66424.8205</v>
       </c>
       <c r="K10" s="1">
-        <v>82079.57309999999</v>
+        <v>82081.99099999999</v>
       </c>
       <c r="L10" s="1">
-        <v>16.0043</v>
+        <v>16.0397</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2000.4253</v>
+        <v>1996.0137</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7999.5747</v>
+        <v>-8003.9863</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.1114</v>
+        <v>-0.1119</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>13.835</v>
       </c>
       <c r="C11" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D11" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E11" s="1">
-        <v>5897.4736</v>
+        <v>5884.7653</v>
       </c>
       <c r="F11" s="1">
-        <v>867.3961</v>
+        <v>865.3447</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>81591.5466</v>
+        <v>81252.7205</v>
       </c>
       <c r="I11" s="1">
-        <v>2000.4253</v>
+        <v>1996.0137</v>
       </c>
       <c r="J11" s="1">
-        <v>83591.9719</v>
+        <v>83248.73420000001</v>
       </c>
       <c r="K11" s="1">
-        <v>92079.57309999999</v>
+        <v>92081.99099999999</v>
       </c>
       <c r="L11" s="1">
-        <v>15.6134</v>
+        <v>15.6475</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-12000.4253</v>
+        <v>-11996.0137</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0898</v>
+        <v>0.0893</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>14.4216</v>
       </c>
       <c r="C12" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D12" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E12" s="1">
-        <v>6764.8697</v>
+        <v>6750.11</v>
       </c>
       <c r="F12" s="1">
-        <v>693.4043</v>
+        <v>692.0176</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>97560.2444</v>
+        <v>97152.9835</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>97560.2444</v>
+        <v>97152.9835</v>
       </c>
       <c r="K12" s="1">
-        <v>104079.9983</v>
+        <v>104078.0047</v>
       </c>
       <c r="L12" s="1">
-        <v>15.3854</v>
+        <v>15.4187</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0424</v>
+        <v>0.0419</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,49 +2033,49 @@
         <v>13.2404</v>
       </c>
       <c r="C13" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D13" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E13" s="1">
-        <v>7458.274</v>
+        <v>7442.1276</v>
       </c>
       <c r="F13" s="1">
-        <v>755.2642</v>
+        <v>753.7556</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>98750.5312</v>
+        <v>98339.52989999999</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>98750.5312</v>
+        <v>98339.52989999999</v>
       </c>
       <c r="K13" s="1">
-        <v>114079.9983</v>
+        <v>114078.0047</v>
       </c>
       <c r="L13" s="1">
-        <v>15.2958</v>
+        <v>15.3287</v>
       </c>
       <c r="M13" s="1">
         <v>0.4</v>
       </c>
       <c r="N13" s="1">
-        <v>2435.3531</v>
+        <v>2430.0396</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7564.6469</v>
+        <v>-7569.9604</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0819</v>
+        <v>-0.0823</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>12.382</v>
       </c>
       <c r="C14" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D14" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E14" s="1">
-        <v>8213.538200000001</v>
+        <v>8195.8832</v>
       </c>
       <c r="F14" s="1">
-        <v>-8213.538200000001</v>
+        <v>-8195.8832</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>101700.03</v>
+        <v>101278.1677</v>
       </c>
       <c r="I14" s="1">
-        <v>2435.3531</v>
+        <v>2430.0396</v>
       </c>
       <c r="J14" s="1">
-        <v>104135.3831</v>
+        <v>103708.2073</v>
       </c>
       <c r="K14" s="1">
-        <v>124079.9983</v>
+        <v>124078.0047</v>
       </c>
       <c r="L14" s="1">
-        <v>15.1068</v>
+        <v>15.1391</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>101700.03</v>
+        <v>101278.1677</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0424</v>
+        <v>-0.0427</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>15.486</v>
       </c>
       <c r="C2" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D2" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>645.7445</v>
+        <v>644.4545000000001</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>16.1958</v>
       </c>
       <c r="C3" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D3" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E3" s="1">
-        <v>645.7445</v>
+        <v>644.4545000000001</v>
       </c>
       <c r="F3" s="1">
-        <v>592.2384</v>
+        <v>596.0024</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10458.2849</v>
+        <v>10416.5754</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10458.2849</v>
+        <v>10416.5754</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9591.774299999999</v>
+        <v>-9672.045599999999</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0458</v>
+        <v>0.0417</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,49 +2324,49 @@
         <v>16.4264</v>
       </c>
       <c r="C4" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D4" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E4" s="1">
-        <v>1237.9829</v>
+        <v>1240.4568</v>
       </c>
       <c r="F4" s="1">
-        <v>597.4923</v>
+        <v>598.6908</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20335.6027</v>
+        <v>20335.5532</v>
       </c>
       <c r="I4" s="1">
-        <v>408.2257</v>
+        <v>327.9544</v>
       </c>
       <c r="J4" s="1">
-        <v>20743.8283</v>
+        <v>20663.5076</v>
       </c>
       <c r="K4" s="1">
-        <v>19591.7743</v>
+        <v>19672.0456</v>
       </c>
       <c r="L4" s="1">
-        <v>15.8256</v>
+        <v>15.8587</v>
       </c>
       <c r="M4" s="1">
         <v>0.75</v>
       </c>
       <c r="N4" s="1">
-        <v>435.8776</v>
+        <v>435.0068</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9378.7698</v>
+        <v>-9419.024100000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.014</v>
+        <v>0.0121</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>17.107</v>
       </c>
       <c r="C5" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D5" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E5" s="1">
-        <v>1835.4752</v>
+        <v>1839.1476</v>
       </c>
       <c r="F5" s="1">
-        <v>520.3441</v>
+        <v>521.3909</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>31399.4744</v>
+        <v>31399.399</v>
       </c>
       <c r="I5" s="1">
-        <v>1029.4559</v>
+        <v>908.9304</v>
       </c>
       <c r="J5" s="1">
-        <v>32428.9303</v>
+        <v>32308.3294</v>
       </c>
       <c r="K5" s="1">
-        <v>29406.4217</v>
+        <v>29526.0764</v>
       </c>
       <c r="L5" s="1">
-        <v>16.0211</v>
+        <v>16.0542</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8901.5268</v>
+        <v>-8937.317499999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0548</v>
+        <v>0.0536</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,49 +2430,49 @@
         <v>16.8894</v>
       </c>
       <c r="C6" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D6" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E6" s="1">
-        <v>2355.8193</v>
+        <v>2360.5385</v>
       </c>
       <c r="F6" s="1">
-        <v>634.3878999999999</v>
+        <v>635.6471</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>39788.1394</v>
+        <v>39788.2923</v>
       </c>
       <c r="I6" s="1">
-        <v>2127.9291</v>
+        <v>1971.6129</v>
       </c>
       <c r="J6" s="1">
-        <v>41916.0685</v>
+        <v>41759.9052</v>
       </c>
       <c r="K6" s="1">
-        <v>38307.9485</v>
+        <v>38463.3939</v>
       </c>
       <c r="L6" s="1">
-        <v>16.261</v>
+        <v>16.2943</v>
       </c>
       <c r="M6" s="1">
         <v>1</v>
       </c>
       <c r="N6" s="1">
-        <v>1651.9277</v>
+        <v>1655.2328</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9062.5026</v>
+        <v>-9101.9509</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0121</v>
+        <v>-0.013</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>16.4004</v>
       </c>
       <c r="C7" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D7" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E7" s="1">
-        <v>2990.2072</v>
+        <v>2996.1856</v>
       </c>
       <c r="F7" s="1">
-        <v>714.2768</v>
+        <v>715.722</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>49040.594</v>
+        <v>49040.3677</v>
       </c>
       <c r="I7" s="1">
-        <v>3065.4265</v>
+        <v>2869.662</v>
       </c>
       <c r="J7" s="1">
-        <v>52106.0204</v>
+        <v>51910.0297</v>
       </c>
       <c r="K7" s="1">
-        <v>49022.3788</v>
+        <v>49220.5776</v>
       </c>
       <c r="L7" s="1">
-        <v>16.3943</v>
+        <v>16.4277</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-11714.4248</v>
+        <v>-11761.674</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0037</v>
+        <v>0.0029</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>15.3877</v>
       </c>
       <c r="C8" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D8" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E8" s="1">
-        <v>3704.484</v>
+        <v>3711.9076</v>
       </c>
       <c r="F8" s="1">
-        <v>737.6672</v>
+        <v>720.4325</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>57003.4879</v>
+        <v>57003.3938</v>
       </c>
       <c r="I8" s="1">
-        <v>1351.0016</v>
+        <v>1107.988</v>
       </c>
       <c r="J8" s="1">
-        <v>58354.4895</v>
+        <v>58111.3817</v>
       </c>
       <c r="K8" s="1">
-        <v>60736.8036</v>
+        <v>60982.2516</v>
       </c>
       <c r="L8" s="1">
-        <v>16.3955</v>
+        <v>16.4288</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11351.0016</v>
+        <v>-11107.988</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0604</v>
+        <v>-0.0614</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>14.6367</v>
       </c>
       <c r="C9" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D9" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E9" s="1">
-        <v>4442.1512</v>
+        <v>4432.3401</v>
       </c>
       <c r="F9" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>65018.434</v>
+        <v>64744.9642</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>65018.434</v>
+        <v>64744.9642</v>
       </c>
       <c r="K9" s="1">
-        <v>72087.80530000001</v>
+        <v>72090.2396</v>
       </c>
       <c r="L9" s="1">
-        <v>16.2281</v>
+        <v>16.2646</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0488</v>
+        <v>-0.0494</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,49 +2642,49 @@
         <v>13.0061</v>
       </c>
       <c r="C10" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D10" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E10" s="1">
-        <v>5125.3653</v>
+        <v>5114.1892</v>
       </c>
       <c r="F10" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>66661.0134</v>
+        <v>66382.68769999999</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>66661.0134</v>
+        <v>66382.68769999999</v>
       </c>
       <c r="K10" s="1">
-        <v>82087.80530000001</v>
+        <v>82090.2396</v>
       </c>
       <c r="L10" s="1">
-        <v>16.016</v>
+        <v>16.0515</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>1998.968</v>
+        <v>1994.553</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8001.032</v>
+        <v>-8005.447</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.1114</v>
+        <v>-0.1119</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>13.835</v>
       </c>
       <c r="C11" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D11" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E11" s="1">
-        <v>5894.2353</v>
+        <v>5881.5194</v>
       </c>
       <c r="F11" s="1">
-        <v>867.2908</v>
+        <v>865.2393</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>81546.745</v>
+        <v>81207.90270000001</v>
       </c>
       <c r="I11" s="1">
-        <v>1998.968</v>
+        <v>1994.553</v>
       </c>
       <c r="J11" s="1">
-        <v>83545.713</v>
+        <v>83202.45570000001</v>
       </c>
       <c r="K11" s="1">
-        <v>92087.80530000001</v>
+        <v>92090.2396</v>
       </c>
       <c r="L11" s="1">
-        <v>15.6234</v>
+        <v>15.6576</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11998.968</v>
+        <v>-11994.553</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0898</v>
+        <v>0.0893</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>14.4216</v>
       </c>
       <c r="C12" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D12" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E12" s="1">
-        <v>6761.5261</v>
+        <v>6746.7587</v>
       </c>
       <c r="F12" s="1">
-        <v>693.4043</v>
+        <v>692.0176</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>97512.0242</v>
+        <v>97104.74860000001</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>97512.0242</v>
+        <v>97104.74860000001</v>
       </c>
       <c r="K12" s="1">
-        <v>104086.7733</v>
+        <v>104084.7926</v>
       </c>
       <c r="L12" s="1">
-        <v>15.394</v>
+        <v>15.4274</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2790,7 +2790,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0424</v>
+        <v>0.0419</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,49 +2801,49 @@
         <v>13.2404</v>
       </c>
       <c r="C13" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D13" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E13" s="1">
-        <v>7454.9304</v>
+        <v>7438.7763</v>
       </c>
       <c r="F13" s="1">
-        <v>755.2642</v>
+        <v>753.7556</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>98706.2604</v>
+        <v>98295.24589999999</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>98706.2604</v>
+        <v>98295.24589999999</v>
       </c>
       <c r="K13" s="1">
-        <v>114086.7733</v>
+        <v>114084.7926</v>
       </c>
       <c r="L13" s="1">
-        <v>15.3035</v>
+        <v>15.3365</v>
       </c>
       <c r="M13" s="1">
         <v>0.4</v>
       </c>
       <c r="N13" s="1">
-        <v>2434.1494</v>
+        <v>2428.8331</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7565.8506</v>
+        <v>-7571.1669</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0819</v>
+        <v>-0.0823</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>12.382</v>
       </c>
       <c r="C14" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D14" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E14" s="1">
-        <v>8210.194600000001</v>
+        <v>8192.5319</v>
       </c>
       <c r="F14" s="1">
-        <v>-8210.194600000001</v>
+        <v>-8192.5319</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>101658.6294</v>
+        <v>101236.7548</v>
       </c>
       <c r="I14" s="1">
-        <v>2434.1494</v>
+        <v>2428.8331</v>
       </c>
       <c r="J14" s="1">
-        <v>104092.7788</v>
+        <v>103665.5879</v>
       </c>
       <c r="K14" s="1">
-        <v>124086.7733</v>
+        <v>124084.7926</v>
       </c>
       <c r="L14" s="1">
-        <v>15.1137</v>
+        <v>15.1461</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>101658.6294</v>
+        <v>101236.7548</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0424</v>
+        <v>-0.0428</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>15.486</v>
       </c>
       <c r="C2" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D2" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>645.7445</v>
+        <v>644.4545000000001</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>16.1958</v>
       </c>
       <c r="C3" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D3" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E3" s="1">
-        <v>645.7445</v>
+        <v>644.4545000000001</v>
       </c>
       <c r="F3" s="1">
-        <v>595.3256</v>
+        <v>599.0958000000001</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10458.2849</v>
+        <v>10416.5754</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10458.2849</v>
+        <v>10416.5754</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9641.774600000001</v>
+        <v>-9722.245999999999</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0458</v>
+        <v>0.0417</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,49 +3092,49 @@
         <v>16.4264</v>
       </c>
       <c r="C4" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D4" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E4" s="1">
-        <v>1241.0702</v>
+        <v>1243.5502</v>
       </c>
       <c r="F4" s="1">
-        <v>603.5823</v>
+        <v>604.793</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>20386.3149</v>
+        <v>20386.2653</v>
       </c>
       <c r="I4" s="1">
-        <v>358.2254</v>
+        <v>277.754</v>
       </c>
       <c r="J4" s="1">
-        <v>20744.5403</v>
+        <v>20664.0192</v>
       </c>
       <c r="K4" s="1">
-        <v>19641.7746</v>
+        <v>19722.246</v>
       </c>
       <c r="L4" s="1">
-        <v>15.8265</v>
+        <v>15.8596</v>
       </c>
       <c r="M4" s="1">
         <v>0.75</v>
       </c>
       <c r="N4" s="1">
-        <v>435.8776</v>
+        <v>435.0068</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9478.807500000001</v>
+        <v>-9519.4629</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.014</v>
+        <v>0.0121</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>17.107</v>
       </c>
       <c r="C5" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D5" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E5" s="1">
-        <v>1844.6525</v>
+        <v>1848.3433</v>
       </c>
       <c r="F5" s="1">
-        <v>528.8794</v>
+        <v>529.9433</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>31556.4705</v>
+        <v>31556.3947</v>
       </c>
       <c r="I5" s="1">
-        <v>879.4178000000001</v>
+        <v>758.2911</v>
       </c>
       <c r="J5" s="1">
-        <v>32435.8883</v>
+        <v>32314.6858</v>
       </c>
       <c r="K5" s="1">
-        <v>29556.4597</v>
+        <v>29676.7157</v>
       </c>
       <c r="L5" s="1">
-        <v>16.0228</v>
+        <v>16.0558</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9047.539500000001</v>
+        <v>-9083.9164</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.055</v>
+        <v>0.0538</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,49 +3198,49 @@
         <v>16.8894</v>
       </c>
       <c r="C6" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D6" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E6" s="1">
-        <v>2373.5319</v>
+        <v>2378.2865</v>
       </c>
       <c r="F6" s="1">
-        <v>646.7265</v>
+        <v>648.0104</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>40087.2921</v>
+        <v>40087.4462</v>
       </c>
       <c r="I6" s="1">
-        <v>1831.8783</v>
+        <v>1674.3747</v>
       </c>
       <c r="J6" s="1">
-        <v>41919.1704</v>
+        <v>41761.8209</v>
       </c>
       <c r="K6" s="1">
-        <v>38603.9992</v>
+        <v>38760.632</v>
       </c>
       <c r="L6" s="1">
-        <v>16.2644</v>
+        <v>16.2977</v>
       </c>
       <c r="M6" s="1">
         <v>1</v>
       </c>
       <c r="N6" s="1">
-        <v>1660.1873</v>
+        <v>1663.5089</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9262.635399999999</v>
+        <v>-9302.9005</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0122</v>
+        <v>-0.0131</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>16.4004</v>
       </c>
       <c r="C7" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D7" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E7" s="1">
-        <v>3020.2584</v>
+        <v>3026.2969</v>
       </c>
       <c r="F7" s="1">
-        <v>730.8788</v>
+        <v>732.3574</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>49533.4458</v>
+        <v>49533.2172</v>
       </c>
       <c r="I7" s="1">
-        <v>2569.2429</v>
+        <v>2371.4742</v>
       </c>
       <c r="J7" s="1">
-        <v>52102.6887</v>
+        <v>51904.6914</v>
       </c>
       <c r="K7" s="1">
-        <v>49526.8219</v>
+        <v>49727.0415</v>
       </c>
       <c r="L7" s="1">
-        <v>16.3982</v>
+        <v>16.4316</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-11986.7048</v>
+        <v>-12035.0493</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0035</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>15.3877</v>
       </c>
       <c r="C8" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D8" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E8" s="1">
-        <v>3751.1372</v>
+        <v>3758.6543</v>
       </c>
       <c r="F8" s="1">
-        <v>687.7271</v>
+        <v>670.3911000000001</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>57721.374</v>
+        <v>57721.2787</v>
       </c>
       <c r="I8" s="1">
-        <v>582.5381</v>
+        <v>336.4249</v>
       </c>
       <c r="J8" s="1">
-        <v>58303.912</v>
+        <v>58057.7036</v>
       </c>
       <c r="K8" s="1">
-        <v>61513.5267</v>
+        <v>61762.0908</v>
       </c>
       <c r="L8" s="1">
-        <v>16.3986</v>
+        <v>16.432</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10582.5381</v>
+        <v>-10336.4249</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0612</v>
+        <v>-0.0621</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>14.6367</v>
       </c>
       <c r="C9" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D9" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E9" s="1">
-        <v>4438.8643</v>
+        <v>4429.0454</v>
       </c>
       <c r="F9" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>64970.325</v>
+        <v>64696.838</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>64970.325</v>
+        <v>64696.838</v>
       </c>
       <c r="K9" s="1">
-        <v>72096.06479999999</v>
+        <v>72098.5157</v>
       </c>
       <c r="L9" s="1">
-        <v>16.242</v>
+        <v>16.2786</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0488</v>
+        <v>-0.0494</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,49 +3410,49 @@
         <v>13.0061</v>
       </c>
       <c r="C10" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D10" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E10" s="1">
-        <v>5122.0784</v>
+        <v>5110.8946</v>
       </c>
       <c r="F10" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>66618.26390000001</v>
+        <v>66339.92290000001</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>66618.26390000001</v>
+        <v>66339.92290000001</v>
       </c>
       <c r="K10" s="1">
-        <v>82096.06479999999</v>
+        <v>82098.5157</v>
       </c>
       <c r="L10" s="1">
-        <v>16.0279</v>
+        <v>16.0634</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>1997.4889</v>
+        <v>1993.0704</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8002.5111</v>
+        <v>-8006.9296</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.1114</v>
+        <v>-0.1119</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>13.835</v>
       </c>
       <c r="C11" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D11" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E11" s="1">
-        <v>5890.9484</v>
+        <v>5878.2247</v>
       </c>
       <c r="F11" s="1">
-        <v>867.1839</v>
+        <v>865.1324</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>81501.27099999999</v>
+        <v>81162.41250000001</v>
       </c>
       <c r="I11" s="1">
-        <v>1997.4889</v>
+        <v>1993.0704</v>
       </c>
       <c r="J11" s="1">
-        <v>83498.75999999999</v>
+        <v>83155.4829</v>
       </c>
       <c r="K11" s="1">
-        <v>92096.06479999999</v>
+        <v>92098.5157</v>
       </c>
       <c r="L11" s="1">
-        <v>15.6335</v>
+        <v>15.6677</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11997.4889</v>
+        <v>-11993.0704</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0898</v>
+        <v>0.0893</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>14.4216</v>
       </c>
       <c r="C12" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D12" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E12" s="1">
-        <v>6758.1323</v>
+        <v>6743.3571</v>
       </c>
       <c r="F12" s="1">
-        <v>693.4043</v>
+        <v>692.0176</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>97463.08040000001</v>
+        <v>97055.7902</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>97463.08040000001</v>
+        <v>97055.7902</v>
       </c>
       <c r="K12" s="1">
-        <v>104093.5538</v>
+        <v>104091.5861</v>
       </c>
       <c r="L12" s="1">
-        <v>15.4027</v>
+        <v>15.4362</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3558,7 +3558,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0424</v>
+        <v>0.0419</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,49 +3569,49 @@
         <v>13.2404</v>
       </c>
       <c r="C13" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D13" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E13" s="1">
-        <v>7451.5366</v>
+        <v>7435.3747</v>
       </c>
       <c r="F13" s="1">
-        <v>755.2642</v>
+        <v>753.7556</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>98661.3253</v>
+        <v>98250.2975</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>98661.3253</v>
+        <v>98250.2975</v>
       </c>
       <c r="K13" s="1">
-        <v>114093.5538</v>
+        <v>114091.5861</v>
       </c>
       <c r="L13" s="1">
-        <v>15.3114</v>
+        <v>15.3444</v>
       </c>
       <c r="M13" s="1">
         <v>0.4</v>
       </c>
       <c r="N13" s="1">
-        <v>2432.9276</v>
+        <v>2427.6086</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7567.0724</v>
+        <v>-7572.3914</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0819</v>
+        <v>-0.0823</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>12.382</v>
       </c>
       <c r="C14" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D14" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E14" s="1">
-        <v>8206.800800000001</v>
+        <v>8189.1303</v>
       </c>
       <c r="F14" s="1">
-        <v>-8206.800800000001</v>
+        <v>-8189.1303</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>101616.6075</v>
+        <v>101194.7206</v>
       </c>
       <c r="I14" s="1">
-        <v>2432.9276</v>
+        <v>2427.6086</v>
       </c>
       <c r="J14" s="1">
-        <v>104049.5351</v>
+        <v>103622.3291</v>
       </c>
       <c r="K14" s="1">
-        <v>124093.5538</v>
+        <v>124091.5861</v>
       </c>
       <c r="L14" s="1">
-        <v>15.1208</v>
+        <v>15.1532</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>101616.6075</v>
+        <v>101194.7206</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0424</v>
+        <v>-0.0428</v>
       </c>
     </row>
   </sheetData>
@@ -3690,7 +3690,7 @@
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
@@ -3760,16 +3760,16 @@
         <v>15.486</v>
       </c>
       <c r="C2" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D2" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>645.7445</v>
+        <v>644.4545000000001</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>16.1958</v>
       </c>
       <c r="C3" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D3" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E3" s="1">
-        <v>645.7445</v>
+        <v>644.4545000000001</v>
       </c>
       <c r="F3" s="1">
-        <v>598.4129</v>
+        <v>602.1892</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10458.2849</v>
+        <v>10416.5754</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10458.2849</v>
+        <v>10416.5754</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3846,10 +3846,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9691.7749</v>
+        <v>-9772.4465</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0458</v>
+        <v>0.0417</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,49 +3860,49 @@
         <v>16.4264</v>
       </c>
       <c r="C4" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D4" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E4" s="1">
-        <v>1244.1574</v>
+        <v>1246.6437</v>
       </c>
       <c r="F4" s="1">
-        <v>609.7028</v>
+        <v>610.9258</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20437.0271</v>
+        <v>20436.9774</v>
       </c>
       <c r="I4" s="1">
-        <v>308.2251</v>
+        <v>227.5535</v>
       </c>
       <c r="J4" s="1">
-        <v>20745.2522</v>
+        <v>20664.5309</v>
       </c>
       <c r="K4" s="1">
-        <v>19691.7749</v>
+        <v>19772.4465</v>
       </c>
       <c r="L4" s="1">
-        <v>15.8274</v>
+        <v>15.8605</v>
       </c>
       <c r="M4" s="1">
         <v>0.75</v>
       </c>
       <c r="N4" s="1">
-        <v>435.8776</v>
+        <v>435.0068</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9579.345300000001</v>
+        <v>-9620.403700000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.014</v>
+        <v>0.0121</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>17.107</v>
       </c>
       <c r="C5" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D5" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E5" s="1">
-        <v>1853.8602</v>
+        <v>1857.5694</v>
       </c>
       <c r="F5" s="1">
-        <v>537.502</v>
+        <v>538.5832</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>31713.9873</v>
+        <v>31713.9111</v>
       </c>
       <c r="I5" s="1">
-        <v>728.8797</v>
+        <v>607.1498</v>
       </c>
       <c r="J5" s="1">
-        <v>32442.867</v>
+        <v>32321.061</v>
       </c>
       <c r="K5" s="1">
-        <v>29706.9978</v>
+        <v>29827.8569</v>
       </c>
       <c r="L5" s="1">
-        <v>16.0244</v>
+        <v>16.0575</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9195.0465</v>
+        <v>-9232.0155</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0552</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,49 +3966,49 @@
         <v>16.8894</v>
       </c>
       <c r="C6" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D6" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E6" s="1">
-        <v>2391.3622</v>
+        <v>2396.1526</v>
       </c>
       <c r="F6" s="1">
-        <v>659.2479</v>
+        <v>660.5567</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>40388.4342</v>
+        <v>40388.5894</v>
       </c>
       <c r="I6" s="1">
-        <v>1533.8333</v>
+        <v>1375.1343</v>
       </c>
       <c r="J6" s="1">
-        <v>41922.2675</v>
+        <v>41763.7237</v>
       </c>
       <c r="K6" s="1">
-        <v>38902.0443</v>
+        <v>39059.8725</v>
       </c>
       <c r="L6" s="1">
-        <v>16.2677</v>
+        <v>16.3011</v>
       </c>
       <c r="M6" s="1">
         <v>1</v>
       </c>
       <c r="N6" s="1">
-        <v>1668.4742</v>
+        <v>1671.8125</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9465.826800000001</v>
+        <v>-9506.921</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0123</v>
+        <v>-0.0132</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>16.4004</v>
       </c>
       <c r="C7" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D7" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E7" s="1">
-        <v>3050.6101</v>
+        <v>3056.7093</v>
       </c>
       <c r="F7" s="1">
-        <v>735.8361</v>
+        <v>722.2051</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>50031.226</v>
+        <v>50030.9951</v>
       </c>
       <c r="I7" s="1">
-        <v>2068.0065</v>
+        <v>1868.2133</v>
       </c>
       <c r="J7" s="1">
-        <v>52099.2325</v>
+        <v>51899.2084</v>
       </c>
       <c r="K7" s="1">
-        <v>50036.3453</v>
+        <v>50238.606</v>
       </c>
       <c r="L7" s="1">
-        <v>16.4021</v>
+        <v>16.4355</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-12068.0065</v>
+        <v>-11868.2133</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0034</v>
+        <v>0.0026</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>15.3877</v>
       </c>
       <c r="C8" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D8" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E8" s="1">
-        <v>3786.4462</v>
+        <v>3778.9144</v>
       </c>
       <c r="F8" s="1">
-        <v>649.8697</v>
+        <v>648.5715</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>58264.6984</v>
+        <v>58032.4107</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>58264.6984</v>
+        <v>58032.4107</v>
       </c>
       <c r="K8" s="1">
-        <v>62104.3518</v>
+        <v>62106.8192</v>
       </c>
       <c r="L8" s="1">
-        <v>16.4018</v>
+        <v>16.4351</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0617</v>
+        <v>-0.0625</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>14.6367</v>
       </c>
       <c r="C9" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D9" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E9" s="1">
-        <v>4436.3159</v>
+        <v>4427.4859</v>
       </c>
       <c r="F9" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>64933.0252</v>
+        <v>64674.058</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>64933.0252</v>
+        <v>64674.058</v>
       </c>
       <c r="K9" s="1">
-        <v>72104.3518</v>
+        <v>72106.8192</v>
       </c>
       <c r="L9" s="1">
-        <v>16.2532</v>
+        <v>16.2862</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4167,7 +4167,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0488</v>
+        <v>-0.0494</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,49 +4178,49 @@
         <v>13.0061</v>
       </c>
       <c r="C10" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D10" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E10" s="1">
-        <v>5119.53</v>
+        <v>5109.3351</v>
       </c>
       <c r="F10" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>66585.1195</v>
+        <v>66319.68060000001</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>66585.1195</v>
+        <v>66319.68060000001</v>
       </c>
       <c r="K10" s="1">
-        <v>82104.3518</v>
+        <v>82106.8192</v>
       </c>
       <c r="L10" s="1">
-        <v>16.0375</v>
+        <v>16.07</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>1996.3422</v>
+        <v>1992.3687</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8003.6578</v>
+        <v>-8007.6313</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.1114</v>
+        <v>-0.1119</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>13.835</v>
       </c>
       <c r="C11" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D11" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E11" s="1">
-        <v>5888.4</v>
+        <v>5876.6653</v>
       </c>
       <c r="F11" s="1">
-        <v>867.101</v>
+        <v>865.0817</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>81466.0143</v>
+        <v>81140.8802</v>
       </c>
       <c r="I11" s="1">
-        <v>1996.3422</v>
+        <v>1992.3687</v>
       </c>
       <c r="J11" s="1">
-        <v>83462.3564</v>
+        <v>83133.24890000001</v>
       </c>
       <c r="K11" s="1">
-        <v>92104.3518</v>
+        <v>92106.8192</v>
       </c>
       <c r="L11" s="1">
-        <v>15.6417</v>
+        <v>15.6733</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11996.3422</v>
+        <v>-11992.3687</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0898</v>
+        <v>0.0893</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>14.4216</v>
       </c>
       <c r="C12" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D12" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E12" s="1">
-        <v>6755.501</v>
+        <v>6741.747</v>
       </c>
       <c r="F12" s="1">
-        <v>693.4043</v>
+        <v>692.0176</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>97425.1333</v>
+        <v>97032.6162</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>97425.1333</v>
+        <v>97032.6162</v>
       </c>
       <c r="K12" s="1">
-        <v>104100.694</v>
+        <v>104099.1879</v>
       </c>
       <c r="L12" s="1">
-        <v>15.4098</v>
+        <v>15.441</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0424</v>
+        <v>0.0419</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,49 +4337,49 @@
         <v>13.2404</v>
       </c>
       <c r="C13" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D13" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E13" s="1">
-        <v>7448.9053</v>
+        <v>7433.7646</v>
       </c>
       <c r="F13" s="1">
-        <v>755.2642</v>
+        <v>753.7556</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>98626.4863</v>
+        <v>98229.0218</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>98626.4863</v>
+        <v>98229.0218</v>
       </c>
       <c r="K13" s="1">
-        <v>114100.694</v>
+        <v>114099.1879</v>
       </c>
       <c r="L13" s="1">
-        <v>15.3178</v>
+        <v>15.3488</v>
       </c>
       <c r="M13" s="1">
         <v>0.4</v>
       </c>
       <c r="N13" s="1">
-        <v>2431.9804</v>
+        <v>2427.0289</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7568.0196</v>
+        <v>-7572.9711</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0819</v>
+        <v>-0.0823</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>12.382</v>
       </c>
       <c r="C14" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D14" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E14" s="1">
-        <v>8204.1695</v>
+        <v>8187.5202</v>
       </c>
       <c r="F14" s="1">
-        <v>-8204.1695</v>
+        <v>-8187.5202</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>101584.0272</v>
+        <v>101174.8242</v>
       </c>
       <c r="I14" s="1">
-        <v>2431.9804</v>
+        <v>2427.0289</v>
       </c>
       <c r="J14" s="1">
-        <v>104016.0076</v>
+        <v>103601.8531</v>
       </c>
       <c r="K14" s="1">
-        <v>124100.694</v>
+        <v>124099.1879</v>
       </c>
       <c r="L14" s="1">
-        <v>15.1265</v>
+        <v>15.1571</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>101584.0272</v>
+        <v>101174.8242</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0424</v>
+        <v>-0.0428</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>15.094</v>
+        <v>15.1243</v>
       </c>
       <c r="D3" s="1">
-        <v>15.1068</v>
+        <v>15.1391</v>
       </c>
       <c r="E3" s="1">
-        <v>15.1137</v>
+        <v>15.1461</v>
       </c>
       <c r="F3" s="1">
-        <v>15.1208</v>
+        <v>15.1532</v>
       </c>
       <c r="G3" s="1">
-        <v>15.1265</v>
+        <v>15.1571</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.2027</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.1048</v>
+        <v>-0.1174</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.1059</v>
+        <v>-0.1184</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.1066</v>
+        <v>-0.1192</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.1073</v>
+        <v>-0.12</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.1079</v>
+        <v>-0.1203</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1923</v>
       </c>
       <c r="C5" s="3">
-        <v>0.2014</v>
+        <v>0.1999</v>
       </c>
       <c r="D5" s="3">
-        <v>0.203</v>
+        <v>0.2017</v>
       </c>
       <c r="E5" s="3">
-        <v>0.2033</v>
+        <v>0.202</v>
       </c>
       <c r="F5" s="3">
-        <v>0.2035</v>
+        <v>0.2022</v>
       </c>
       <c r="G5" s="3">
-        <v>0.2038</v>
+        <v>0.2024</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-1.16</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.6212</v>
+        <v>-0.6887</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.6214</v>
+        <v>-0.6877</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.6243</v>
+        <v>-0.6907</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.6272</v>
+        <v>-0.6937</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.6293</v>
+        <v>-0.6949</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.2384</v>
+        <v>-0.2444</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.2385</v>
+        <v>-0.2444</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.2386</v>
+        <v>-0.2445</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.2387</v>
+        <v>-0.2446</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.2388</v>
+        <v>-0.2445</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>6466.9929</v>
+        <v>6453.9212</v>
       </c>
       <c r="D8" s="1">
-        <v>6515.3514</v>
+        <v>6508.0443</v>
       </c>
       <c r="E8" s="1">
-        <v>6520.9227</v>
+        <v>6513.6258</v>
       </c>
       <c r="F8" s="1">
-        <v>6526.4814</v>
+        <v>6519.1947</v>
       </c>
       <c r="G8" s="1">
-        <v>6532.6743</v>
+        <v>6526.2168</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P46_KFSDIV.xlsx
+++ b/output/1Y_P46_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>8027.3739</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.8389</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.838</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.8376</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.8372000000000001</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.8368</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
